--- a/Programming_Assignments/out.xlsx
+++ b/Programming_Assignments/out.xlsx
@@ -8,101 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannythroop/Documents/COSC 3100/Programming_Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD87125-022F-CA4B-8720-55B2ECB75259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A304A7B7-3175-7F43-861A-51A331BDA259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rec_fib" sheetId="1" r:id="rId1"/>
+    <sheet name="good fib" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>n</t>
+    <t>rec_fib(n)</t>
   </si>
   <si>
-    <t>148.446</t>
+    <t>good_fib(n)</t>
   </si>
   <si>
-    <t>401.243</t>
-  </si>
-  <si>
-    <t>617.766</t>
-  </si>
-  <si>
-    <t>1076.32</t>
-  </si>
-  <si>
-    <t>1698.28</t>
-  </si>
-  <si>
-    <t>2767.12</t>
-  </si>
-  <si>
-    <t>4465.86</t>
-  </si>
-  <si>
-    <t>7222.89</t>
-  </si>
-  <si>
-    <t>11933.8</t>
-  </si>
-  <si>
-    <t>20329.0</t>
-  </si>
-  <si>
-    <t>31333.0</t>
-  </si>
-  <si>
-    <t>50539.7</t>
-  </si>
-  <si>
-    <t>81654.9</t>
-  </si>
-  <si>
-    <t>134197.0</t>
-  </si>
-  <si>
-    <t>213173.0</t>
-  </si>
-  <si>
-    <t>342272.0</t>
-  </si>
-  <si>
-    <t>551731.0</t>
-  </si>
-  <si>
-    <t>894563.0</t>
-  </si>
-  <si>
-    <t>1449010.0</t>
-  </si>
-  <si>
-    <t>2290200.0</t>
-  </si>
-  <si>
-    <t>3721540.0</t>
-  </si>
-  <si>
-    <t>5941690.0</t>
-  </si>
-  <si>
-    <t>9591750.0</t>
-  </si>
-  <si>
-    <t>15877100.0</t>
+    <t>Trials (nsecs) 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -130,8 +73,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,15 +417,1955 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>152.37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>142.71799999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>202.815</v>
+      </c>
+      <c r="E2" s="1">
+        <v>222.62</v>
+      </c>
+      <c r="F2" s="1">
+        <v>207.50700000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>183.797</v>
+      </c>
+      <c r="H2" s="1">
+        <v>208.172</v>
+      </c>
+      <c r="I2" s="1">
+        <v>225.79</v>
+      </c>
+      <c r="J2" s="1">
+        <v>230.00299999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>156.25</v>
+      </c>
+      <c r="L2" s="1">
+        <v>207.86199999999999</v>
+      </c>
+      <c r="M2" s="1">
+        <v>175.29900000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>161.49</v>
+      </c>
+      <c r="O2" s="1">
+        <v>239.654</v>
+      </c>
+      <c r="P2" s="1">
+        <v>221.78100000000001</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>237.15</v>
+      </c>
+      <c r="R2" s="1">
+        <v>208.56100000000001</v>
+      </c>
+      <c r="S2" s="1">
+        <v>207.88399999999999</v>
+      </c>
+      <c r="T2" s="1">
+        <v>174.73500000000001</v>
+      </c>
+      <c r="U2" s="1">
+        <v>239.26</v>
+      </c>
+      <c r="V2" s="1">
+        <v>221.761</v>
+      </c>
+      <c r="W2" s="1">
+        <v>235.464</v>
+      </c>
+      <c r="X2" s="1">
+        <v>188.089</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>202.71799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>416.78300000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>394.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>572.26900000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>572.87599999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>566.04</v>
+      </c>
+      <c r="G3" s="1">
+        <v>633.19100000000003</v>
+      </c>
+      <c r="H3" s="1">
+        <v>633.91999999999996</v>
+      </c>
+      <c r="I3" s="1">
+        <v>573.38599999999997</v>
+      </c>
+      <c r="J3" s="1">
+        <v>593.83100000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>603.24400000000003</v>
+      </c>
+      <c r="L3" s="1">
+        <v>565.76400000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>586.32899999999995</v>
+      </c>
+      <c r="N3" s="1">
+        <v>599.67399999999998</v>
+      </c>
+      <c r="O3" s="1">
+        <v>617.85699999999997</v>
+      </c>
+      <c r="P3" s="1">
+        <v>601.24400000000003</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>638.18899999999996</v>
+      </c>
+      <c r="R3" s="1">
+        <v>559.22699999999998</v>
+      </c>
+      <c r="S3" s="1">
+        <v>636.71500000000003</v>
+      </c>
+      <c r="T3" s="1">
+        <v>633.21699999999998</v>
+      </c>
+      <c r="U3" s="1">
+        <v>650.03899999999999</v>
+      </c>
+      <c r="V3" s="1">
+        <v>574.577</v>
+      </c>
+      <c r="W3" s="1">
+        <v>619.32799999999997</v>
+      </c>
+      <c r="X3" s="1">
+        <v>540.52700000000004</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>575.41999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>646.38699999999994</v>
+      </c>
+      <c r="C4" s="1">
+        <v>609.82799999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>947.25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>958.42200000000003</v>
+      </c>
+      <c r="F4" s="1">
+        <v>946.16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>717.54100000000005</v>
+      </c>
+      <c r="H4" s="1">
+        <v>844.86</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1001.39</v>
+      </c>
+      <c r="J4" s="1">
+        <v>975.78599999999994</v>
+      </c>
+      <c r="K4" s="1">
+        <v>945.74699999999996</v>
+      </c>
+      <c r="L4" s="1">
+        <v>950.88800000000003</v>
+      </c>
+      <c r="M4" s="1">
+        <v>903.49400000000003</v>
+      </c>
+      <c r="N4" s="1">
+        <v>955.18100000000004</v>
+      </c>
+      <c r="O4" s="1">
+        <v>965.726</v>
+      </c>
+      <c r="P4" s="1">
+        <v>906.06899999999996</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>978.59199999999998</v>
+      </c>
+      <c r="R4" s="1">
+        <v>990.73</v>
+      </c>
+      <c r="S4" s="1">
+        <v>790.37900000000002</v>
+      </c>
+      <c r="T4" s="1">
+        <v>827.423</v>
+      </c>
+      <c r="U4" s="1">
+        <v>957.40099999999995</v>
+      </c>
+      <c r="V4" s="1">
+        <v>951.27099999999996</v>
+      </c>
+      <c r="W4" s="1">
+        <v>882.68499999999995</v>
+      </c>
+      <c r="X4" s="1">
+        <v>974.35199999999998</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>931.97400000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1128.1099999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1066.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1095.8699999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1102.32</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1126.95</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1281.01</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1064.17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1151.4000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1098.56</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1095.29</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1077.53</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1110.72</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1112.05</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1245.5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1063.1600000000001</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1199.17</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1072.6400000000001</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1062.82</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1059.78</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1063.3399999999999</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1093.92</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1070.48</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1080.7</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1061.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1788.21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1694.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1692.41</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1693.25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1692.49</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1715.86</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1689.84</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1688.53</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1690.32</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1692.88</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1691.62</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1692.41</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1692.29</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1689.98</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1690.2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1690.03</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1691.52</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1786.05</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1691.26</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1689.63</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1697.89</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1693.11</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1693.9</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1690.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2919.98</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2800.26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2772.07</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2759.64</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2764.42</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2803.85</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2769.71</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2761.83</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2762.67</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2772.09</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2773.39</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2765.69</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2766.41</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2766.15</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2762.72</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2970.16</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2763.53</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2803.39</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2760.49</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2764.1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2775.96</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2764.11</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2773.14</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2762.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4487.05</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4454.96</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4456.07</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4455.1899999999996</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4453.66</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4641.7299999999996</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4456.1400000000003</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4452.67</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4454.32</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4456.01</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4460.51</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4457.1400000000003</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4455.33</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4452.28</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4456.9399999999996</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>4454.45</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4456.0600000000004</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4458.67</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4456.0200000000004</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4481.9399999999996</v>
+      </c>
+      <c r="V8" s="1">
+        <v>4474.1000000000004</v>
+      </c>
+      <c r="W8" s="1">
+        <v>4454.3100000000004</v>
+      </c>
+      <c r="X8" s="1">
+        <v>4463.04</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>4454.8900000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7214.34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7231.52</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7214.31</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7217.66</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7212.51</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7282.28</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7214.23</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7215.43</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7221.75</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7224.14</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7230.3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7216.35</v>
+      </c>
+      <c r="N9" s="1">
+        <v>7215.5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>7214.01</v>
+      </c>
+      <c r="P9" s="1">
+        <v>7552.61</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>7221.45</v>
+      </c>
+      <c r="R9" s="1">
+        <v>7214.54</v>
+      </c>
+      <c r="S9" s="1">
+        <v>7244.07</v>
+      </c>
+      <c r="T9" s="1">
+        <v>7214.3</v>
+      </c>
+      <c r="U9" s="1">
+        <v>7222.32</v>
+      </c>
+      <c r="V9" s="1">
+        <v>7229.34</v>
+      </c>
+      <c r="W9" s="1">
+        <v>7217.52</v>
+      </c>
+      <c r="X9" s="1">
+        <v>7224.26</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>7218.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11713.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11706.3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11828.7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11692.1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11690.3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11856.6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11720.9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>11697.8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>11805.6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>11907</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11773.6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>11690.6</v>
+      </c>
+      <c r="N10" s="1">
+        <v>11710.4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>11707.1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>12258</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>11693.1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>11706.2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>11703.6</v>
+      </c>
+      <c r="T10" s="1">
+        <v>11697.3</v>
+      </c>
+      <c r="U10" s="1">
+        <v>11754.9</v>
+      </c>
+      <c r="V10" s="1">
+        <v>11757.6</v>
+      </c>
+      <c r="W10" s="1">
+        <v>11703.7</v>
+      </c>
+      <c r="X10" s="1">
+        <v>11702.4</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>11695.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20161.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20088.2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20031.8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>19912.3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>19788</v>
+      </c>
+      <c r="G11" s="1">
+        <v>19339.400000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19732.900000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>19820.400000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>19573.900000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>19723.099999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20108.7</v>
+      </c>
+      <c r="M11" s="1">
+        <v>19947.2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>19906.8</v>
+      </c>
+      <c r="O11" s="1">
+        <v>19832.099999999999</v>
+      </c>
+      <c r="P11" s="1">
+        <v>19551.599999999999</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>19791.599999999999</v>
+      </c>
+      <c r="R11" s="1">
+        <v>19718.7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>19179.5</v>
+      </c>
+      <c r="T11" s="1">
+        <v>19309.099999999999</v>
+      </c>
+      <c r="U11" s="1">
+        <v>19155.7</v>
+      </c>
+      <c r="V11" s="1">
+        <v>19980.5</v>
+      </c>
+      <c r="W11" s="1">
+        <v>20162.400000000001</v>
+      </c>
+      <c r="X11" s="1">
+        <v>19167.8</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>19380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>32506.799999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>31101.200000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>31526.3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>31214.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>31240.1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>31202.799999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>31588.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>31044.2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>31370.799999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>31136.6</v>
+      </c>
+      <c r="L12" s="1">
+        <v>31478.400000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>31026.5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>31466.400000000001</v>
+      </c>
+      <c r="O12" s="1">
+        <v>31568</v>
+      </c>
+      <c r="P12" s="1">
+        <v>30866.5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>31401.7</v>
+      </c>
+      <c r="R12" s="1">
+        <v>31575.1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>31405.599999999999</v>
+      </c>
+      <c r="T12" s="1">
+        <v>31474.1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>31474.3</v>
+      </c>
+      <c r="V12" s="1">
+        <v>31278.7</v>
+      </c>
+      <c r="W12" s="1">
+        <v>30994.799999999999</v>
+      </c>
+      <c r="X12" s="1">
+        <v>31561.599999999999</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>31680.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>50692</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50000.800000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50247</v>
+      </c>
+      <c r="E13" s="1">
+        <v>51085</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50516.4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50547.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>50434.6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>50412.1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>50774.9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>50428.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>50716.6</v>
+      </c>
+      <c r="M13" s="1">
+        <v>50370.400000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <v>50700.2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>49911.8</v>
+      </c>
+      <c r="P13" s="1">
+        <v>50559.4</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>50141.7</v>
+      </c>
+      <c r="R13" s="1">
+        <v>50608</v>
+      </c>
+      <c r="S13" s="1">
+        <v>50354.2</v>
+      </c>
+      <c r="T13" s="1">
+        <v>50769.8</v>
+      </c>
+      <c r="U13" s="1">
+        <v>50371.5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>50784.4</v>
+      </c>
+      <c r="W13" s="1">
+        <v>50629</v>
+      </c>
+      <c r="X13" s="1">
+        <v>50560.3</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>50325.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>81970.7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>81239.3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>81906</v>
+      </c>
+      <c r="E14" s="1">
+        <v>81199</v>
+      </c>
+      <c r="F14" s="1">
+        <v>81014.600000000006</v>
+      </c>
+      <c r="G14" s="1">
+        <v>81281.899999999994</v>
+      </c>
+      <c r="H14" s="1">
+        <v>80974.3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>80761.899999999994</v>
+      </c>
+      <c r="J14" s="1">
+        <v>81939.5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>81432.600000000006</v>
+      </c>
+      <c r="L14" s="1">
+        <v>81591.100000000006</v>
+      </c>
+      <c r="M14" s="1">
+        <v>80657.5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>81266.2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>83468.100000000006</v>
+      </c>
+      <c r="P14" s="1">
+        <v>82575.199999999997</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>81769.600000000006</v>
+      </c>
+      <c r="R14" s="1">
+        <v>81978</v>
+      </c>
+      <c r="S14" s="1">
+        <v>81028.5</v>
+      </c>
+      <c r="T14" s="1">
+        <v>81084</v>
+      </c>
+      <c r="U14" s="1">
+        <v>81065.3</v>
+      </c>
+      <c r="V14" s="1">
+        <v>81664</v>
+      </c>
+      <c r="W14" s="1">
+        <v>81569.100000000006</v>
+      </c>
+      <c r="X14" s="1">
+        <v>81944.399999999994</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>80966.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>135296</v>
+      </c>
+      <c r="C15" s="1">
+        <v>132435</v>
+      </c>
+      <c r="D15" s="1">
+        <v>130354</v>
+      </c>
+      <c r="E15" s="1">
+        <v>130715</v>
+      </c>
+      <c r="F15" s="1">
+        <v>130787</v>
+      </c>
+      <c r="G15" s="1">
+        <v>131128</v>
+      </c>
+      <c r="H15" s="1">
+        <v>131042</v>
+      </c>
+      <c r="I15" s="1">
+        <v>130979</v>
+      </c>
+      <c r="J15" s="1">
+        <v>131183</v>
+      </c>
+      <c r="K15" s="1">
+        <v>130601</v>
+      </c>
+      <c r="L15" s="1">
+        <v>147830</v>
+      </c>
+      <c r="M15" s="1">
+        <v>131054</v>
+      </c>
+      <c r="N15" s="1">
+        <v>130897</v>
+      </c>
+      <c r="O15" s="1">
+        <v>130327</v>
+      </c>
+      <c r="P15" s="1">
+        <v>130816</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>128767</v>
+      </c>
+      <c r="R15" s="1">
+        <v>132006</v>
+      </c>
+      <c r="S15" s="1">
+        <v>131178</v>
+      </c>
+      <c r="T15" s="1">
+        <v>130991</v>
+      </c>
+      <c r="U15" s="1">
+        <v>130658</v>
+      </c>
+      <c r="V15" s="1">
+        <v>131242</v>
+      </c>
+      <c r="W15" s="1">
+        <v>131403</v>
+      </c>
+      <c r="X15" s="1">
+        <v>131609</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>131339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>211867</v>
+      </c>
+      <c r="C16" s="1">
+        <v>214636</v>
+      </c>
+      <c r="D16" s="1">
+        <v>211781</v>
+      </c>
+      <c r="E16" s="1">
+        <v>215552</v>
+      </c>
+      <c r="F16" s="1">
+        <v>211185</v>
+      </c>
+      <c r="G16" s="1">
+        <v>211566</v>
+      </c>
+      <c r="H16" s="1">
+        <v>210950</v>
+      </c>
+      <c r="I16" s="1">
+        <v>210692</v>
+      </c>
+      <c r="J16" s="1">
+        <v>211629</v>
+      </c>
+      <c r="K16" s="1">
+        <v>210560</v>
+      </c>
+      <c r="L16" s="1">
+        <v>212256</v>
+      </c>
+      <c r="M16" s="1">
+        <v>211254</v>
+      </c>
+      <c r="N16" s="1">
+        <v>211033</v>
+      </c>
+      <c r="O16" s="1">
+        <v>210335</v>
+      </c>
+      <c r="P16" s="1">
+        <v>212088</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>207955</v>
+      </c>
+      <c r="R16" s="1">
+        <v>212607</v>
+      </c>
+      <c r="S16" s="1">
+        <v>211989</v>
+      </c>
+      <c r="T16" s="1">
+        <v>211307</v>
+      </c>
+      <c r="U16" s="1">
+        <v>212281</v>
+      </c>
+      <c r="V16" s="1">
+        <v>217765</v>
+      </c>
+      <c r="W16" s="1">
+        <v>211259</v>
+      </c>
+      <c r="X16" s="1">
+        <v>211567</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>213475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>342567</v>
+      </c>
+      <c r="C17" s="1">
+        <v>349378</v>
+      </c>
+      <c r="D17" s="1">
+        <v>339331</v>
+      </c>
+      <c r="E17" s="1">
+        <v>340652</v>
+      </c>
+      <c r="F17" s="1">
+        <v>340564</v>
+      </c>
+      <c r="G17" s="1">
+        <v>341855</v>
+      </c>
+      <c r="H17" s="1">
+        <v>339050</v>
+      </c>
+      <c r="I17" s="1">
+        <v>339225</v>
+      </c>
+      <c r="J17" s="1">
+        <v>343765</v>
+      </c>
+      <c r="K17" s="1">
+        <v>340053</v>
+      </c>
+      <c r="L17" s="1">
+        <v>339108</v>
+      </c>
+      <c r="M17" s="1">
+        <v>338944</v>
+      </c>
+      <c r="N17" s="1">
+        <v>340566</v>
+      </c>
+      <c r="O17" s="1">
+        <v>339853</v>
+      </c>
+      <c r="P17" s="1">
+        <v>338804</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>334406</v>
+      </c>
+      <c r="R17" s="1">
+        <v>340478</v>
+      </c>
+      <c r="S17" s="1">
+        <v>339393</v>
+      </c>
+      <c r="T17" s="1">
+        <v>341152</v>
+      </c>
+      <c r="U17" s="1">
+        <v>337980</v>
+      </c>
+      <c r="V17" s="1">
+        <v>347311</v>
+      </c>
+      <c r="W17" s="1">
+        <v>340490</v>
+      </c>
+      <c r="X17" s="1">
+        <v>342734</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>339432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>546285</v>
+      </c>
+      <c r="C18" s="1">
+        <v>562920</v>
+      </c>
+      <c r="D18" s="1">
+        <v>548146</v>
+      </c>
+      <c r="E18" s="1">
+        <v>548092</v>
+      </c>
+      <c r="F18" s="1">
+        <v>550870</v>
+      </c>
+      <c r="G18" s="1">
+        <v>548210</v>
+      </c>
+      <c r="H18" s="1">
+        <v>547322</v>
+      </c>
+      <c r="I18" s="1">
+        <v>547804</v>
+      </c>
+      <c r="J18" s="1">
+        <v>551344</v>
+      </c>
+      <c r="K18" s="1">
+        <v>548634</v>
+      </c>
+      <c r="L18" s="1">
+        <v>546957</v>
+      </c>
+      <c r="M18" s="1">
+        <v>546547</v>
+      </c>
+      <c r="N18" s="1">
+        <v>546814</v>
+      </c>
+      <c r="O18" s="1">
+        <v>547289</v>
+      </c>
+      <c r="P18" s="1">
+        <v>545651</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>541669</v>
+      </c>
+      <c r="R18" s="1">
+        <v>554389</v>
+      </c>
+      <c r="S18" s="1">
+        <v>547357</v>
+      </c>
+      <c r="T18" s="1">
+        <v>548043</v>
+      </c>
+      <c r="U18" s="1">
+        <v>547863</v>
+      </c>
+      <c r="V18" s="1">
+        <v>547495</v>
+      </c>
+      <c r="W18" s="1">
+        <v>549853</v>
+      </c>
+      <c r="X18" s="1">
+        <v>549944</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>548510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>891411</v>
+      </c>
+      <c r="C19" s="1">
+        <v>898840</v>
+      </c>
+      <c r="D19" s="1">
+        <v>888236</v>
+      </c>
+      <c r="E19" s="1">
+        <v>893634</v>
+      </c>
+      <c r="F19" s="1">
+        <v>890196</v>
+      </c>
+      <c r="G19" s="1">
+        <v>888672</v>
+      </c>
+      <c r="H19" s="1">
+        <v>887618</v>
+      </c>
+      <c r="I19" s="1">
+        <v>893339</v>
+      </c>
+      <c r="J19" s="1">
+        <v>904295</v>
+      </c>
+      <c r="K19" s="1">
+        <v>888423</v>
+      </c>
+      <c r="L19" s="1">
+        <v>893079</v>
+      </c>
+      <c r="M19" s="1">
+        <v>891463</v>
+      </c>
+      <c r="N19" s="1">
+        <v>888633</v>
+      </c>
+      <c r="O19" s="1">
+        <v>887429</v>
+      </c>
+      <c r="P19" s="1">
+        <v>887018</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1273110</v>
+      </c>
+      <c r="R19" s="1">
+        <v>897169</v>
+      </c>
+      <c r="S19" s="1">
+        <v>889405</v>
+      </c>
+      <c r="T19" s="1">
+        <v>890547</v>
+      </c>
+      <c r="U19" s="1">
+        <v>890656</v>
+      </c>
+      <c r="V19" s="1">
+        <v>890583</v>
+      </c>
+      <c r="W19" s="1">
+        <v>889897</v>
+      </c>
+      <c r="X19" s="1">
+        <v>891387</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>893407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1424170</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1436000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1427270</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1422660</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1422260</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1422670</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1421170</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1447350</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1428400</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1421180</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1424450</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1422270</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1420760</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1424640</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1430030</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1447760</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1458990</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1445560</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1423980</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1422100</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1425070</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1421680</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1424920</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1427080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2290280</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2299620</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2279750</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2283880</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2297330</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2308750</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2279350</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2281680</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2278000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2280380</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2287400</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2287410</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2286540</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2279930</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2281280</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2289080</v>
+      </c>
+      <c r="R21" s="1">
+        <v>2290770</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2287670</v>
+      </c>
+      <c r="T21" s="1">
+        <v>2279220</v>
+      </c>
+      <c r="U21" s="1">
+        <v>2285240</v>
+      </c>
+      <c r="V21" s="1">
+        <v>2292240</v>
+      </c>
+      <c r="W21" s="1">
+        <v>2281200</v>
+      </c>
+      <c r="X21" s="1">
+        <v>2280280</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>2296600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3671350</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3708470</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3674300</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3670830</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3670370</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3706890</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3679680</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3681140</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3675760</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3691490</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3663580</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3665390</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3680840</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3667170</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3670230</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3644950</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3679760</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3715600</v>
+      </c>
+      <c r="T22" s="1">
+        <v>3684060</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3674900</v>
+      </c>
+      <c r="V22" s="1">
+        <v>3669800</v>
+      </c>
+      <c r="W22" s="1">
+        <v>3685340</v>
+      </c>
+      <c r="X22" s="1">
+        <v>3696220</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>3684740</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5938050</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5939480</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5937080</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5934870</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5941120</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5928770</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5936800</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5930530</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5918040</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5933900</v>
+      </c>
+      <c r="L23" s="1">
+        <v>5922240</v>
+      </c>
+      <c r="M23" s="1">
+        <v>5925910</v>
+      </c>
+      <c r="N23" s="1">
+        <v>5916920</v>
+      </c>
+      <c r="O23" s="1">
+        <v>5925010</v>
+      </c>
+      <c r="P23" s="1">
+        <v>5925860</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>5882320</v>
+      </c>
+      <c r="R23" s="1">
+        <v>5943310</v>
+      </c>
+      <c r="S23" s="1">
+        <v>5933370</v>
+      </c>
+      <c r="T23" s="1">
+        <v>5925990</v>
+      </c>
+      <c r="U23" s="1">
+        <v>5943370</v>
+      </c>
+      <c r="V23" s="1">
+        <v>5925780</v>
+      </c>
+      <c r="W23" s="1">
+        <v>5923130</v>
+      </c>
+      <c r="X23" s="1">
+        <v>5914610</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>5911960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9764090</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9580190</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9579690</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9669160</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9603520</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9599860</v>
+      </c>
+      <c r="H24" s="1">
+        <v>9579920</v>
+      </c>
+      <c r="I24" s="1">
+        <v>9846020</v>
+      </c>
+      <c r="J24" s="1">
+        <v>9588100</v>
+      </c>
+      <c r="K24" s="1">
+        <v>9575260</v>
+      </c>
+      <c r="L24" s="1">
+        <v>9563570</v>
+      </c>
+      <c r="M24" s="1">
+        <v>9562030</v>
+      </c>
+      <c r="N24" s="1">
+        <v>9577560</v>
+      </c>
+      <c r="O24" s="1">
+        <v>9560890</v>
+      </c>
+      <c r="P24" s="1">
+        <v>9578260</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>14181300</v>
+      </c>
+      <c r="R24" s="1">
+        <v>9574380</v>
+      </c>
+      <c r="S24" s="1">
+        <v>9566960</v>
+      </c>
+      <c r="T24" s="1">
+        <v>9600720</v>
+      </c>
+      <c r="U24" s="1">
+        <v>9559550</v>
+      </c>
+      <c r="V24" s="1">
+        <v>9571160</v>
+      </c>
+      <c r="W24" s="1">
+        <v>9592790</v>
+      </c>
+      <c r="X24" s="1">
+        <v>9617300</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>9563570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15539300</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15510400</v>
+      </c>
+      <c r="D25" s="1">
+        <v>15517100</v>
+      </c>
+      <c r="E25" s="1">
+        <v>15500200</v>
+      </c>
+      <c r="F25" s="1">
+        <v>15489200</v>
+      </c>
+      <c r="G25" s="1">
+        <v>15467600</v>
+      </c>
+      <c r="H25" s="1">
+        <v>15489000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>15998300</v>
+      </c>
+      <c r="J25" s="1">
+        <v>15453300</v>
+      </c>
+      <c r="K25" s="1">
+        <v>15500400</v>
+      </c>
+      <c r="L25" s="1">
+        <v>15468400</v>
+      </c>
+      <c r="M25" s="1">
+        <v>15491500</v>
+      </c>
+      <c r="N25" s="1">
+        <v>15464500</v>
+      </c>
+      <c r="O25" s="1">
+        <v>15465000</v>
+      </c>
+      <c r="P25" s="1">
+        <v>16000300</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>22721500</v>
+      </c>
+      <c r="R25" s="1">
+        <v>15439700</v>
+      </c>
+      <c r="S25" s="1">
+        <v>15455300</v>
+      </c>
+      <c r="T25" s="1">
+        <v>15513600</v>
+      </c>
+      <c r="U25" s="1">
+        <v>15458800</v>
+      </c>
+      <c r="V25" s="1">
+        <v>15487300</v>
+      </c>
+      <c r="W25" s="1">
+        <v>15458700</v>
+      </c>
+      <c r="X25" s="1">
+        <v>15470500</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>15470300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -559,192 +2444,1848 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="1">
+        <v>247.13300000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>168.34800000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>167.64400000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>178.584</v>
+      </c>
+      <c r="F2" s="1">
+        <v>167.81200000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>221.20500000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>169.07499999999999</v>
+      </c>
+      <c r="I2" s="1">
+        <v>168.51400000000001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>182.78200000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>167.98699999999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>168.244</v>
+      </c>
+      <c r="M2" s="1">
+        <v>167.80500000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>168.7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>168.036</v>
+      </c>
+      <c r="P2" s="1">
+        <v>218.87299999999999</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>167.81</v>
+      </c>
+      <c r="R2" s="1">
+        <v>168.69399999999999</v>
+      </c>
+      <c r="S2" s="1">
+        <v>171.136</v>
+      </c>
+      <c r="T2" s="1">
+        <v>167.92699999999999</v>
+      </c>
+      <c r="U2" s="1">
+        <v>168.31899999999999</v>
+      </c>
+      <c r="V2" s="1">
+        <v>192.00700000000001</v>
+      </c>
+      <c r="W2" s="1">
+        <v>167.65899999999999</v>
+      </c>
+      <c r="X2" s="1">
+        <v>168.101</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>167.98599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3" s="1">
+        <v>663.26199999999994</v>
+      </c>
+      <c r="C3" s="1">
+        <v>484.74799999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>423.09699999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>424.21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>427.755</v>
+      </c>
+      <c r="G3" s="1">
+        <v>427.13200000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>424.05200000000002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>423.57100000000003</v>
+      </c>
+      <c r="J3" s="1">
+        <v>581.71900000000005</v>
+      </c>
+      <c r="K3" s="1">
+        <v>424.74900000000002</v>
+      </c>
+      <c r="L3" s="1">
+        <v>423.13499999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>426.267</v>
+      </c>
+      <c r="N3" s="1">
+        <v>425.262</v>
+      </c>
+      <c r="O3" s="1">
+        <v>426.27199999999999</v>
+      </c>
+      <c r="P3" s="1">
+        <v>440.53500000000003</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>427.49799999999999</v>
+      </c>
+      <c r="R3" s="1">
+        <v>422.61700000000002</v>
+      </c>
+      <c r="S3" s="1">
+        <v>423.19799999999998</v>
+      </c>
+      <c r="T3" s="1">
+        <v>422.77199999999999</v>
+      </c>
+      <c r="U3" s="1">
+        <v>422.83</v>
+      </c>
+      <c r="V3" s="1">
+        <v>427.697</v>
+      </c>
+      <c r="W3" s="1">
+        <v>423.14299999999997</v>
+      </c>
+      <c r="X3" s="1">
+        <v>422.452</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>422.601</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>674.04</v>
+      </c>
+      <c r="C4" s="1">
+        <v>519.86199999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>453.471</v>
+      </c>
+      <c r="E4" s="1">
+        <v>453.74900000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>455.11700000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>453.68299999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>457.58699999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>453.05900000000003</v>
+      </c>
+      <c r="J4" s="1">
+        <v>467.69799999999998</v>
+      </c>
+      <c r="K4" s="1">
+        <v>456.42700000000002</v>
+      </c>
+      <c r="L4" s="1">
+        <v>453.58499999999998</v>
+      </c>
+      <c r="M4" s="1">
+        <v>454.39100000000002</v>
+      </c>
+      <c r="N4" s="1">
+        <v>483.214</v>
+      </c>
+      <c r="O4" s="1">
+        <v>459.66899999999998</v>
+      </c>
+      <c r="P4" s="1">
+        <v>454.387</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>463.82100000000003</v>
+      </c>
+      <c r="R4" s="1">
+        <v>454.786</v>
+      </c>
+      <c r="S4" s="1">
+        <v>474.07900000000001</v>
+      </c>
+      <c r="T4" s="1">
+        <v>453.50200000000001</v>
+      </c>
+      <c r="U4" s="1">
+        <v>454.15300000000002</v>
+      </c>
+      <c r="V4" s="1">
+        <v>456.08600000000001</v>
+      </c>
+      <c r="W4" s="1">
+        <v>453.12099999999998</v>
+      </c>
+      <c r="X4" s="1">
+        <v>452.279</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>453.05599999999998</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5" s="1">
+        <v>543.61099999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>579.64400000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>488.46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>493.04899999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>492.95800000000003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>515.76300000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>495.66800000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>488.673</v>
+      </c>
+      <c r="J5" s="1">
+        <v>489.30799999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>489.84699999999998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>488.387</v>
+      </c>
+      <c r="M5" s="1">
+        <v>490.26799999999997</v>
+      </c>
+      <c r="N5" s="1">
+        <v>499.964</v>
+      </c>
+      <c r="O5" s="1">
+        <v>490.31799999999998</v>
+      </c>
+      <c r="P5" s="1">
+        <v>531.55799999999999</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>491.61500000000001</v>
+      </c>
+      <c r="R5" s="1">
+        <v>487.233</v>
+      </c>
+      <c r="S5" s="1">
+        <v>489.94499999999999</v>
+      </c>
+      <c r="T5" s="1">
+        <v>487.83600000000001</v>
+      </c>
+      <c r="U5" s="1">
+        <v>487.87099999999998</v>
+      </c>
+      <c r="V5" s="1">
+        <v>500.96899999999999</v>
+      </c>
+      <c r="W5" s="1">
+        <v>488.06200000000001</v>
+      </c>
+      <c r="X5" s="1">
+        <v>487.40899999999999</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>487.83699999999999</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>522.51599999999996</v>
+      </c>
+      <c r="C6" s="1">
+        <v>528.42499999999995</v>
+      </c>
+      <c r="D6" s="1">
+        <v>527.45899999999995</v>
+      </c>
+      <c r="E6" s="1">
+        <v>528.21699999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>522.84100000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>587.30100000000004</v>
+      </c>
+      <c r="H6" s="1">
+        <v>523.46100000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>522.87800000000004</v>
+      </c>
+      <c r="J6" s="1">
+        <v>523.21900000000005</v>
+      </c>
+      <c r="K6" s="1">
+        <v>526.96900000000005</v>
+      </c>
+      <c r="L6" s="1">
+        <v>523.02499999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <v>523.779</v>
+      </c>
+      <c r="N6" s="1">
+        <v>523.54499999999996</v>
+      </c>
+      <c r="O6" s="1">
+        <v>532.87599999999998</v>
+      </c>
+      <c r="P6" s="1">
+        <v>526.76800000000003</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>529.81500000000005</v>
+      </c>
+      <c r="R6" s="1">
+        <v>522.90099999999995</v>
+      </c>
+      <c r="S6" s="1">
+        <v>521.83100000000002</v>
+      </c>
+      <c r="T6" s="1">
+        <v>524.048</v>
+      </c>
+      <c r="U6" s="1">
+        <v>522.125</v>
+      </c>
+      <c r="V6" s="1">
+        <v>532.59699999999998</v>
+      </c>
+      <c r="W6" s="1">
+        <v>521.697</v>
+      </c>
+      <c r="X6" s="1">
+        <v>521.54600000000005</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>522.375</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" s="1">
+        <v>569.66200000000003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>571.09500000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>602.01700000000005</v>
+      </c>
+      <c r="E7" s="1">
+        <v>569.44600000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>580.45399999999995</v>
+      </c>
+      <c r="G7" s="1">
+        <v>574.33299999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>572.28200000000004</v>
+      </c>
+      <c r="I7" s="1">
+        <v>574.69299999999998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>570.21400000000006</v>
+      </c>
+      <c r="K7" s="1">
+        <v>574.63300000000004</v>
+      </c>
+      <c r="L7" s="1">
+        <v>573.06799999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>573.00699999999995</v>
+      </c>
+      <c r="N7" s="1">
+        <v>571.56100000000004</v>
+      </c>
+      <c r="O7" s="1">
+        <v>570.28700000000003</v>
+      </c>
+      <c r="P7" s="1">
+        <v>578.39599999999996</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>575.61300000000006</v>
+      </c>
+      <c r="R7" s="1">
+        <v>569.66800000000001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>567.96799999999996</v>
+      </c>
+      <c r="T7" s="1">
+        <v>568.26599999999996</v>
+      </c>
+      <c r="U7" s="1">
+        <v>665.03300000000002</v>
+      </c>
+      <c r="V7" s="1">
+        <v>582.26499999999999</v>
+      </c>
+      <c r="W7" s="1">
+        <v>568.63</v>
+      </c>
+      <c r="X7" s="1">
+        <v>567.93499999999995</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>573.93700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8" s="1">
+        <v>601.66300000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>602.32000000000005</v>
+      </c>
+      <c r="D8" s="1">
+        <v>606.35599999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>613.87900000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>604.19299999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>626.73599999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>604.43299999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>603.16899999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>609.322</v>
+      </c>
+      <c r="K8" s="1">
+        <v>607.92999999999995</v>
+      </c>
+      <c r="L8" s="1">
+        <v>602.42600000000004</v>
+      </c>
+      <c r="M8" s="1">
+        <v>604.00800000000004</v>
+      </c>
+      <c r="N8" s="1">
+        <v>607.87300000000005</v>
+      </c>
+      <c r="O8" s="1">
+        <v>602.07299999999998</v>
+      </c>
+      <c r="P8" s="1">
+        <v>608.99900000000002</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>602.35500000000002</v>
+      </c>
+      <c r="R8" s="1">
+        <v>637.15599999999995</v>
+      </c>
+      <c r="S8" s="1">
+        <v>599.63</v>
+      </c>
+      <c r="T8" s="1">
+        <v>599.95299999999997</v>
+      </c>
+      <c r="U8" s="1">
+        <v>605.83500000000004</v>
+      </c>
+      <c r="V8" s="1">
+        <v>615.84199999999998</v>
+      </c>
+      <c r="W8" s="1">
+        <v>602.48500000000001</v>
+      </c>
+      <c r="X8" s="1">
+        <v>610.33600000000001</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>601.92600000000004</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B9" s="1">
+        <v>635.03399999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>635.83399999999995</v>
+      </c>
+      <c r="D9" s="1">
+        <v>639.548</v>
+      </c>
+      <c r="E9" s="1">
+        <v>750.62099999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>639.40800000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>635.56500000000005</v>
+      </c>
+      <c r="H9" s="1">
+        <v>638.75699999999995</v>
+      </c>
+      <c r="I9" s="1">
+        <v>634.89200000000005</v>
+      </c>
+      <c r="J9" s="1">
+        <v>635.49099999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>640.71</v>
+      </c>
+      <c r="L9" s="1">
+        <v>634.71699999999998</v>
+      </c>
+      <c r="M9" s="1">
+        <v>636.25</v>
+      </c>
+      <c r="N9" s="1">
+        <v>637.41399999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>646.84199999999998</v>
+      </c>
+      <c r="P9" s="1">
+        <v>639.59</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>638.65899999999999</v>
+      </c>
+      <c r="R9" s="1">
+        <v>643.66499999999996</v>
+      </c>
+      <c r="S9" s="1">
+        <v>632.82399999999996</v>
+      </c>
+      <c r="T9" s="1">
+        <v>633.33299999999997</v>
+      </c>
+      <c r="U9" s="1">
+        <v>634.63599999999997</v>
+      </c>
+      <c r="V9" s="1">
+        <v>648.173</v>
+      </c>
+      <c r="W9" s="1">
+        <v>632.76599999999996</v>
+      </c>
+      <c r="X9" s="1">
+        <v>669.78899999999999</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>633.48500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="B10" s="1">
+        <v>668.37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>668.16499999999996</v>
+      </c>
+      <c r="D10" s="1">
+        <v>686.27499999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>667.97</v>
+      </c>
+      <c r="F10" s="1">
+        <v>671.94299999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>672.69500000000005</v>
+      </c>
+      <c r="H10" s="1">
+        <v>725.32500000000005</v>
+      </c>
+      <c r="I10" s="1">
+        <v>668.14</v>
+      </c>
+      <c r="J10" s="1">
+        <v>701.23500000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>670.09100000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>668.99400000000003</v>
+      </c>
+      <c r="M10" s="1">
+        <v>669.76</v>
+      </c>
+      <c r="N10" s="1">
+        <v>671.90499999999997</v>
+      </c>
+      <c r="O10" s="1">
+        <v>670.92399999999998</v>
+      </c>
+      <c r="P10" s="1">
+        <v>679.09900000000005</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>669.42200000000003</v>
+      </c>
+      <c r="R10" s="1">
+        <v>677.35</v>
+      </c>
+      <c r="S10" s="1">
+        <v>665.82</v>
+      </c>
+      <c r="T10" s="1">
+        <v>671.68</v>
+      </c>
+      <c r="U10" s="1">
+        <v>669.447</v>
+      </c>
+      <c r="V10" s="1">
+        <v>683.26900000000001</v>
+      </c>
+      <c r="W10" s="1">
+        <v>667.31200000000001</v>
+      </c>
+      <c r="X10" s="1">
+        <v>680.89800000000002</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>667.32500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="B11" s="1">
+        <v>701.423</v>
+      </c>
+      <c r="C11" s="1">
+        <v>703.19299999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>702.76499999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>731.66200000000003</v>
+      </c>
+      <c r="F11" s="1">
+        <v>703.85500000000002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>703.71199999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>712.83900000000006</v>
+      </c>
+      <c r="I11" s="1">
+        <v>706.10699999999997</v>
+      </c>
+      <c r="J11" s="1">
+        <v>724.49599999999998</v>
+      </c>
+      <c r="K11" s="1">
+        <v>712.33799999999997</v>
+      </c>
+      <c r="L11" s="1">
+        <v>720.99800000000005</v>
+      </c>
+      <c r="M11" s="1">
+        <v>703.83699999999999</v>
+      </c>
+      <c r="N11" s="1">
+        <v>707.45399999999995</v>
+      </c>
+      <c r="O11" s="1">
+        <v>731.75900000000001</v>
+      </c>
+      <c r="P11" s="1">
+        <v>712.40099999999995</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>712.16499999999996</v>
+      </c>
+      <c r="R11" s="1">
+        <v>710.60900000000004</v>
+      </c>
+      <c r="S11" s="1">
+        <v>701.50400000000002</v>
+      </c>
+      <c r="T11" s="1">
+        <v>700.63099999999997</v>
+      </c>
+      <c r="U11" s="1">
+        <v>702.20500000000004</v>
+      </c>
+      <c r="V11" s="1">
+        <v>740.29100000000005</v>
+      </c>
+      <c r="W11" s="1">
+        <v>701.01099999999997</v>
+      </c>
+      <c r="X11" s="1">
+        <v>730.70500000000004</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>703.024</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B12" s="1">
+        <v>736.02700000000004</v>
+      </c>
+      <c r="C12" s="1">
+        <v>736.34100000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>735.279</v>
+      </c>
+      <c r="E12" s="1">
+        <v>736.476</v>
+      </c>
+      <c r="F12" s="1">
+        <v>794.26800000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>738.12199999999996</v>
+      </c>
+      <c r="H12" s="1">
+        <v>745.67600000000004</v>
+      </c>
+      <c r="I12" s="1">
+        <v>738.62699999999995</v>
+      </c>
+      <c r="J12" s="1">
+        <v>822.33399999999995</v>
+      </c>
+      <c r="K12" s="1">
+        <v>739.86199999999997</v>
+      </c>
+      <c r="L12" s="1">
+        <v>995.16200000000003</v>
+      </c>
+      <c r="M12" s="1">
+        <v>739.22500000000002</v>
+      </c>
+      <c r="N12" s="1">
+        <v>738.947</v>
+      </c>
+      <c r="O12" s="1">
+        <v>738.51900000000001</v>
+      </c>
+      <c r="P12" s="1">
+        <v>738.62699999999995</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>739.27700000000004</v>
+      </c>
+      <c r="R12" s="1">
+        <v>746.16700000000003</v>
+      </c>
+      <c r="S12" s="1">
+        <v>740.09799999999996</v>
+      </c>
+      <c r="T12" s="1">
+        <v>747.774</v>
+      </c>
+      <c r="U12" s="1">
+        <v>733.48299999999995</v>
+      </c>
+      <c r="V12" s="1">
+        <v>734.56399999999996</v>
+      </c>
+      <c r="W12" s="1">
+        <v>732.99599999999998</v>
+      </c>
+      <c r="X12" s="1">
+        <v>734.56500000000005</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>743.88400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
+      <c r="B13" s="1">
+        <v>767.40300000000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>767.56899999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>768.25099999999998</v>
+      </c>
+      <c r="E13" s="1">
+        <v>773.59699999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>823.15700000000004</v>
+      </c>
+      <c r="G13" s="1">
+        <v>771.36199999999997</v>
+      </c>
+      <c r="H13" s="1">
+        <v>773.57600000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>847.39800000000002</v>
+      </c>
+      <c r="J13" s="1">
+        <v>775.96400000000006</v>
+      </c>
+      <c r="K13" s="1">
+        <v>773.00099999999998</v>
+      </c>
+      <c r="L13" s="1">
+        <v>812.37300000000005</v>
+      </c>
+      <c r="M13" s="1">
+        <v>773.91600000000005</v>
+      </c>
+      <c r="N13" s="1">
+        <v>770.08299999999997</v>
+      </c>
+      <c r="O13" s="1">
+        <v>771.37599999999998</v>
+      </c>
+      <c r="P13" s="1">
+        <v>775.15800000000002</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>775.10299999999995</v>
+      </c>
+      <c r="R13" s="1">
+        <v>773.59699999999998</v>
+      </c>
+      <c r="S13" s="1">
+        <v>767.23699999999997</v>
+      </c>
+      <c r="T13" s="1">
+        <v>768.18100000000004</v>
+      </c>
+      <c r="U13" s="1">
+        <v>766.04600000000005</v>
+      </c>
+      <c r="V13" s="1">
+        <v>766.976</v>
+      </c>
+      <c r="W13" s="1">
+        <v>767.38199999999995</v>
+      </c>
+      <c r="X13" s="1">
+        <v>767.28</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>797.13900000000001</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
+      <c r="B14" s="1">
+        <v>804.15800000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>802.53300000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>801.23</v>
+      </c>
+      <c r="E14" s="1">
+        <v>808.077</v>
+      </c>
+      <c r="F14" s="1">
+        <v>804.298</v>
+      </c>
+      <c r="G14" s="1">
+        <v>809.33199999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>839.10699999999997</v>
+      </c>
+      <c r="I14" s="1">
+        <v>802.42499999999995</v>
+      </c>
+      <c r="J14" s="1">
+        <v>822.45799999999997</v>
+      </c>
+      <c r="K14" s="1">
+        <v>809.13599999999997</v>
+      </c>
+      <c r="L14" s="1">
+        <v>803.35799999999995</v>
+      </c>
+      <c r="M14" s="1">
+        <v>814.18899999999996</v>
+      </c>
+      <c r="N14" s="1">
+        <v>810.89700000000005</v>
+      </c>
+      <c r="O14" s="1">
+        <v>800.93600000000004</v>
+      </c>
+      <c r="P14" s="1">
+        <v>807.94500000000005</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>813.58900000000006</v>
+      </c>
+      <c r="R14" s="1">
+        <v>803.77300000000002</v>
+      </c>
+      <c r="S14" s="1">
+        <v>799.63099999999997</v>
+      </c>
+      <c r="T14" s="1">
+        <v>962.50900000000001</v>
+      </c>
+      <c r="U14" s="1">
+        <v>799.54200000000003</v>
+      </c>
+      <c r="V14" s="1">
+        <v>799.88300000000004</v>
+      </c>
+      <c r="W14" s="1">
+        <v>898.26800000000003</v>
+      </c>
+      <c r="X14" s="1">
+        <v>822.072</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>831.27099999999996</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
+      <c r="B15" s="1">
+        <v>848.50900000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>855.85199999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>848.75400000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>848.31600000000003</v>
+      </c>
+      <c r="F15" s="1">
+        <v>849.75699999999995</v>
+      </c>
+      <c r="G15" s="1">
+        <v>853.25199999999995</v>
+      </c>
+      <c r="H15" s="1">
+        <v>854.82799999999997</v>
+      </c>
+      <c r="I15" s="1">
+        <v>868.67399999999998</v>
+      </c>
+      <c r="J15" s="1">
+        <v>852.40599999999995</v>
+      </c>
+      <c r="K15" s="1">
+        <v>853.56799999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>848.42499999999995</v>
+      </c>
+      <c r="M15" s="1">
+        <v>865.45699999999999</v>
+      </c>
+      <c r="N15" s="1">
+        <v>900.73099999999999</v>
+      </c>
+      <c r="O15" s="1">
+        <v>856.54399999999998</v>
+      </c>
+      <c r="P15" s="1">
+        <v>860.97900000000004</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>856.68499999999995</v>
+      </c>
+      <c r="R15" s="1">
+        <v>852.553</v>
+      </c>
+      <c r="S15" s="1">
+        <v>845.98800000000006</v>
+      </c>
+      <c r="T15" s="1">
+        <v>854.3</v>
+      </c>
+      <c r="U15" s="1">
+        <v>846.90800000000002</v>
+      </c>
+      <c r="V15" s="1">
+        <v>846.28399999999999</v>
+      </c>
+      <c r="W15" s="1">
+        <v>916.95500000000004</v>
+      </c>
+      <c r="X15" s="1">
+        <v>848.49800000000005</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>849.82799999999997</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>894.06100000000004</v>
+      </c>
+      <c r="C16" s="1">
+        <v>938.26800000000003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>894.96299999999997</v>
+      </c>
+      <c r="E16" s="1">
+        <v>902.38300000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>896.95500000000004</v>
+      </c>
+      <c r="G16" s="1">
+        <v>907.58299999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <v>898.21299999999997</v>
+      </c>
+      <c r="I16" s="1">
+        <v>899.35400000000004</v>
+      </c>
+      <c r="J16" s="1">
+        <v>897.26900000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>896.25</v>
+      </c>
+      <c r="L16" s="1">
+        <v>898.74</v>
+      </c>
+      <c r="M16" s="1">
+        <v>905.12</v>
+      </c>
+      <c r="N16" s="1">
+        <v>894.928</v>
+      </c>
+      <c r="O16" s="1">
+        <v>895.69899999999996</v>
+      </c>
+      <c r="P16" s="1">
+        <v>913.76099999999997</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>920.66899999999998</v>
+      </c>
+      <c r="R16" s="1">
+        <v>919.11099999999999</v>
+      </c>
+      <c r="S16" s="1">
+        <v>894.20500000000004</v>
+      </c>
+      <c r="T16" s="1">
+        <v>953.10900000000004</v>
+      </c>
+      <c r="U16" s="1">
+        <v>894.423</v>
+      </c>
+      <c r="V16" s="1">
+        <v>897.09199999999998</v>
+      </c>
+      <c r="W16" s="1">
+        <v>893.73099999999999</v>
+      </c>
+      <c r="X16" s="1">
+        <v>898.39200000000005</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>905.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>956.29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>971.30499999999995</v>
+      </c>
+      <c r="D17" s="1">
+        <v>960.54</v>
+      </c>
+      <c r="E17" s="1">
+        <v>987.11300000000006</v>
+      </c>
+      <c r="F17" s="1">
+        <v>971.08199999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>963.63400000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>977.73299999999995</v>
+      </c>
+      <c r="I17" s="1">
+        <v>961.92700000000002</v>
+      </c>
+      <c r="J17" s="1">
+        <v>964.06200000000001</v>
+      </c>
+      <c r="K17" s="1">
+        <v>986.27300000000002</v>
+      </c>
+      <c r="L17" s="1">
+        <v>962.33699999999999</v>
+      </c>
+      <c r="M17" s="1">
+        <v>960.32600000000002</v>
+      </c>
+      <c r="N17" s="1">
+        <v>982.96799999999996</v>
+      </c>
+      <c r="O17" s="1">
+        <v>967.45399999999995</v>
+      </c>
+      <c r="P17" s="1">
+        <v>966.48099999999999</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>974.11400000000003</v>
+      </c>
+      <c r="R17" s="1">
+        <v>960.84199999999998</v>
+      </c>
+      <c r="S17" s="1">
+        <v>957.46900000000005</v>
+      </c>
+      <c r="T17" s="1">
+        <v>964.024</v>
+      </c>
+      <c r="U17" s="1">
+        <v>957.38</v>
+      </c>
+      <c r="V17" s="1">
+        <v>958.40899999999999</v>
+      </c>
+      <c r="W17" s="1">
+        <v>957.28399999999999</v>
+      </c>
+      <c r="X17" s="1">
+        <v>963.447</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>967.19600000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>1007.21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1023.71</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1006.84</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1018.73</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1010.55</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1006.54</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1070.1400000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1013.84</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1006.3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1017.16</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1022.3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1021.21</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1008.01</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1007.85</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1015.56</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1050.8499999999999</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1026.7</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1005.48</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1032.01</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1003.71</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1006.29</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1014.74</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1005.49</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1011.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>1072.3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1275.1500000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1069.1099999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1137.2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1072.3800000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1071.57</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1141.68</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1070.92</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1068.57</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1078.54</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1071.28</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1073.8800000000001</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1074.26</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1069.31</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1076.94</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1073.22</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1130.3800000000001</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1067.24</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1081.75</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1066.97</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1066.3900000000001</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1074</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1067.67</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1071.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>1110.23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1113.33</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1114.3800000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1113.8499999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1109.79</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1118.08</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1117.42</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1109.6300000000001</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1118.99</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1117.3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1288.74</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1123.78</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1110.07</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1257</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1114.8800000000001</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1112.81</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1161.21</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1120.79</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1109.79</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1122.0899999999999</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1117.3800000000001</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1115.3</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1150.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>1156.18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1196.24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1163.94</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1185.6199999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1169.8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1156.67</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1171.52</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1156.42</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1172.99</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1166.6199999999999</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1172.3900000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1202.1400000000001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1163.3499999999999</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1158.22</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1299.83</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1156.43</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1165.93</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1172.58</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1175.3599999999999</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1155.53</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1266.0999999999999</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1210.6500000000001</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1165.25</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1181.3900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>1206.04</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1208.54</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1208.43</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1216.3599999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1204.92</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1484.96</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1203.33</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1208.19</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1222.5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1215.98</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1202.01</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1278.3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1218.03</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1202.69</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1201.9100000000001</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1212.1600000000001</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1203.05</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1207.9100000000001</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1377.75</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1201.6500000000001</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1238.24</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1222.6600000000001</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1203.93</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1217.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>1250.01</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1255.07</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1284.76</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1256.96</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1261.6400000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1260.29</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1249.7</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1249.23</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1296.6199999999999</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1250.1400000000001</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1249.19</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1367.06</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1263.3399999999999</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1250</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1254.1400000000001</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1253.3900000000001</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1247.71</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1249.72</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1253.99</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1248.06</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1246.92</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1251.3399999999999</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1247.31</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>1246.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>1295.6400000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1302.03</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1301.05</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1307.5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1311.2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1298</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1309.49</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1297.1199999999999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1299.43</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1311.04</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1303.26</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1300.45</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1307.51</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1297.33</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1305.31</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1298.56</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1292.04</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1295.22</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1299.33</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1303.0999999999999</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1292.3</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1292.73</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1331.53</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1292.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
+      <c r="B25" s="1">
+        <v>1342</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1346.55</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1346.09</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1382.47</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1657.17</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1344.62</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1343.99</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1341.04</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1344.57</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1839.93</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1370.19</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1344.12</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1343.37</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1343.64</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1461.02</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1351.18</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1434.2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1346.08</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1344.75</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1358.34</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1338.96</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1340.09</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1346.47</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1339.58</v>
       </c>
     </row>
   </sheetData>
